--- a/state_fact_sheets/data/raw/MN_sector_emissions_scenarios.xlsx
+++ b/state_fact_sheets/data/raw/MN_sector_emissions_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmariano/Library/CloudStorage/Dropbox/1 Projects/Industrial-decarb/state_fact_sheets/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D416448-5FBC-0D46-9EEF-463FA7B66466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7D889C-18D6-4C47-8D3E-CB77E14651BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="520" windowWidth="19220" windowHeight="21100" activeTab="2" xr2:uid="{845C92EE-A3DE-8448-A676-49F95A3CD96E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{845C92EE-A3DE-8448-A676-49F95A3CD96E}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline" sheetId="1" r:id="rId1"/>
@@ -62,27 +62,12 @@
     <t>Ambient heat pump (best case)</t>
   </si>
   <si>
-    <t>Energy efficiency + Waste heat pump (worse case)</t>
-  </si>
-  <si>
-    <t>Energy efficiency + Waste heat pump (best case)</t>
-  </si>
-  <si>
     <t>Paper Mills</t>
   </si>
   <si>
-    <t>Beet Sugar Manufacturing</t>
-  </si>
-  <si>
-    <t>Ethyl Alcohol Manufacturing</t>
-  </si>
-  <si>
     <t>sector</t>
   </si>
   <si>
-    <t>Baseline --&gt; F29 = "=F28*K29/1000"</t>
-  </si>
-  <si>
     <t>80% --&gt; F29 = Baseline * (.2/.66)</t>
   </si>
   <si>
@@ -96,6 +81,21 @@
   </si>
   <si>
     <t xml:space="preserve">To get scenarios, in fuel conversion and assumptions: </t>
+  </si>
+  <si>
+    <t>Baseline --&gt; F29 "=F28*K29/1000"</t>
+  </si>
+  <si>
+    <t>Energy efficiency + Ambient heat pump (worse case)</t>
+  </si>
+  <si>
+    <t>Energy efficiency + Ambient heat pump (best case)</t>
+  </si>
+  <si>
+    <t>Beet Sugar</t>
+  </si>
+  <si>
+    <t>Ethyl Alcohol</t>
   </si>
 </sst>
 </file>
@@ -484,15 +484,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F720B17A-E336-0049-B80A-8E328D95B900}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -516,15 +516,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>2217640</v>
@@ -548,15 +548,15 @@
         <v>2208287</v>
       </c>
       <c r="I2" s="2">
-        <v>2108180</v>
+        <v>2198655</v>
       </c>
       <c r="J2" s="2">
-        <v>1931462</v>
+        <v>2179010</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>648951</v>
@@ -580,15 +580,15 @@
         <v>718307</v>
       </c>
       <c r="I3" s="2">
-        <v>437943</v>
+        <v>692856</v>
       </c>
       <c r="J3" s="2">
-        <v>129347</v>
+        <v>649484</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>1840694</v>
@@ -612,10 +612,10 @@
         <v>1439268</v>
       </c>
       <c r="I4" s="2">
-        <v>279276</v>
+        <v>1427102</v>
       </c>
       <c r="J4" s="2">
-        <v>31139</v>
+        <v>1295341</v>
       </c>
     </row>
   </sheetData>
@@ -628,14 +628,14 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,15 +659,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>2217640</v>
@@ -691,15 +691,15 @@
         <v>2004239</v>
       </c>
       <c r="I2" s="2">
-        <v>1973904</v>
+        <v>2001320</v>
       </c>
       <c r="J2" s="2">
-        <v>1920353</v>
+        <v>1995368</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>648951</v>
@@ -723,15 +723,15 @@
         <v>238633</v>
       </c>
       <c r="I3" s="2">
-        <v>153674</v>
+        <v>230921</v>
       </c>
       <c r="J3" s="2">
-        <v>60160</v>
+        <v>217778</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>1840694</v>
@@ -755,10 +755,10 @@
         <v>436142</v>
       </c>
       <c r="I4" s="2">
-        <v>84629</v>
+        <v>432455</v>
       </c>
       <c r="J4" s="2">
-        <v>9436</v>
+        <v>392528</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -782,15 +782,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B4C450-FA83-F74B-8274-46645A2A583C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -814,15 +814,15 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>2217640</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2">
         <v>648951</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>1840694</v>
@@ -933,32 +933,32 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
